--- a/bombas_dataset_with_torque_params.xlsx
+++ b/bombas_dataset_with_torque_params.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c842a89353bbbeb3/Documentos/00 Fran/02. Trabajo/01. Metso/06. Dev/PumpsReactionTime/PumpsReactionTime/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F356A5A7C5DFBCC59E170B7123B2646D48C6E683" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C16E5B3-6386-334D-AF6E-1B1974475C25}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -358,8 +364,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,13 +428,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -466,7 +480,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -500,6 +514,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -534,9 +549,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -709,14 +725,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,7 +866,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -885,16 +904,16 @@
         <v>4.212287850657054</v>
       </c>
       <c r="M2">
-        <v>195.4551132986267</v>
+        <v>195.45511329862671</v>
       </c>
       <c r="N2">
-        <v>0.9993812213563404</v>
+        <v>0.99938122135634044</v>
       </c>
       <c r="O2">
         <v>0.4323867468703404</v>
       </c>
       <c r="P2">
-        <v>3.220306626234269</v>
+        <v>3.2203066262342692</v>
       </c>
       <c r="Q2">
         <v>-8.110465863998515</v>
@@ -903,7 +922,7 @@
         <v>1241</v>
       </c>
       <c r="S2">
-        <v>403.8333333333333</v>
+        <v>403.83333333333331</v>
       </c>
       <c r="T2">
         <v>400</v>
@@ -978,7 +997,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1016,25 +1035,25 @@
         <v>15.55891492085461</v>
       </c>
       <c r="M3">
-        <v>22.09518737908956</v>
+        <v>22.095187379089559</v>
       </c>
       <c r="N3">
-        <v>0.9987885668201708</v>
+        <v>0.99878856682017081</v>
       </c>
       <c r="O3">
-        <v>0.1879867416380953</v>
+        <v>0.18798674163809531</v>
       </c>
       <c r="P3">
-        <v>3.815542575103208</v>
+        <v>3.8155425751032079</v>
       </c>
       <c r="Q3">
-        <v>-5.809782190575951</v>
+        <v>-5.8097821905759508</v>
       </c>
       <c r="R3">
         <v>1388</v>
       </c>
       <c r="S3">
-        <v>342.1666666666667</v>
+        <v>342.16666666666669</v>
       </c>
       <c r="T3">
         <v>115.5</v>
@@ -1109,7 +1128,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1144,19 +1163,19 @@
         <v>100</v>
       </c>
       <c r="L4">
-        <v>16.99008743025941</v>
+        <v>16.990087430259411</v>
       </c>
       <c r="M4">
-        <v>51.28718305825856</v>
+        <v>51.287183058258563</v>
       </c>
       <c r="N4">
-        <v>0.9998519643641136</v>
+        <v>0.99985196436411361</v>
       </c>
       <c r="O4">
         <v>0.1018715220761776</v>
       </c>
       <c r="P4">
-        <v>4.428995693140745</v>
+        <v>4.4289956931407453</v>
       </c>
       <c r="Q4">
         <v>-7.036762026802343</v>
@@ -1168,7 +1187,7 @@
         <v>527.5</v>
       </c>
       <c r="T4">
-        <v>132.2</v>
+        <v>132.19999999999999</v>
       </c>
       <c r="U4">
         <v>1386.2</v>
@@ -1240,7 +1259,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1278,25 +1297,25 @@
         <v>3.890920785618623</v>
       </c>
       <c r="M5">
-        <v>227.8224907579132</v>
+        <v>227.82249075791319</v>
       </c>
       <c r="N5">
-        <v>0.9997705516488852</v>
+        <v>0.99977055164888518</v>
       </c>
       <c r="O5">
-        <v>0.3361768142577317</v>
+        <v>0.33617681425773172</v>
       </c>
       <c r="P5">
         <v>3.8415165433339</v>
       </c>
       <c r="Q5">
-        <v>-9.354394479643888</v>
+        <v>-9.3543944796438883</v>
       </c>
       <c r="R5">
         <v>1161.5</v>
       </c>
       <c r="S5">
-        <v>348.1666666666667</v>
+        <v>348.16666666666669</v>
       </c>
       <c r="T5">
         <v>300.24</v>
@@ -1371,7 +1390,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1412,16 +1431,16 @@
         <v>29.21823778235915</v>
       </c>
       <c r="N6">
-        <v>0.9998523183544455</v>
+        <v>0.99985231835444555</v>
       </c>
       <c r="O6">
-        <v>0.1162491778363336</v>
+        <v>0.11624917783633359</v>
       </c>
       <c r="P6">
         <v>4.372227342136533</v>
       </c>
       <c r="Q6">
-        <v>-6.76657245825933</v>
+        <v>-6.7665724582593301</v>
       </c>
       <c r="R6">
         <v>1050</v>
@@ -1502,7 +1521,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1537,19 +1556,19 @@
         <v>100</v>
       </c>
       <c r="L7">
-        <v>7.906202985978969</v>
+        <v>7.9062029859789691</v>
       </c>
       <c r="M7">
-        <v>73.17280722174159</v>
+        <v>73.172807221741593</v>
       </c>
       <c r="N7">
         <v>0.9999028153430144</v>
       </c>
       <c r="O7">
-        <v>0.1921209620796921</v>
+        <v>0.19212096207969209</v>
       </c>
       <c r="P7">
-        <v>5.80504941204978</v>
+        <v>5.8050494120497804</v>
       </c>
       <c r="Q7">
         <v>-13.47666791531447</v>
@@ -1561,7 +1580,7 @@
         <v>545.5</v>
       </c>
       <c r="T7">
-        <v>65.40000000000001</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="U7">
         <v>1139</v>

--- a/bombas_dataset_with_torque_params.xlsx
+++ b/bombas_dataset_with_torque_params.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c842a89353bbbeb3/Documentos/00 Fran/02. Trabajo/01. Metso/06. Dev/PumpsReactionTime/PumpsReactionTime/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F356A5A7C5DFBCC59E170B7123B2646D48C6E683" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C16E5B3-6386-334D-AF6E-1B1974475C25}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_F356A5A7C5DFBCC59E170B7123B2646D48C6E683" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E369EFA-DAF3-144B-9201-1F6EB2060902}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <t>TAG</t>
   </si>
@@ -88,9 +101,6 @@
     <t>T_pump_Q_n_formula</t>
   </si>
   <si>
-    <t>tag</t>
-  </si>
-  <si>
     <t>pumpmodel</t>
   </si>
   <si>
@@ -127,27 +137,12 @@
     <t>pump_n_max_rpm</t>
   </si>
   <si>
-    <t>driverpulley_weight_lb</t>
-  </si>
-  <si>
-    <t>driverpulley_j_lbs_ft2</t>
-  </si>
-  <si>
     <t>driverpulley_j_kgm2</t>
   </si>
   <si>
-    <t>driverbushing_j_lbs_ft2</t>
-  </si>
-  <si>
     <t>driverbushing_j_kgm2</t>
   </si>
   <si>
-    <t>drivenpulley_j_lbs_ft2</t>
-  </si>
-  <si>
-    <t>drivenbushing_j_lbs_ft2</t>
-  </si>
-  <si>
     <t>centerdistance_mm</t>
   </si>
   <si>
@@ -286,36 +281,6 @@
     <t>8,8</t>
   </si>
   <si>
-    <t>17,5</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>1,05</t>
-  </si>
-  <si>
-    <t>40,2</t>
-  </si>
-  <si>
-    <t>34,5</t>
-  </si>
-  <si>
-    <t>4,82</t>
-  </si>
-  <si>
-    <t>21,2</t>
-  </si>
-  <si>
     <t>0,05</t>
   </si>
   <si>
@@ -331,34 +296,13 @@
     <t>0,90</t>
   </si>
   <si>
-    <t>0,22</t>
-  </si>
-  <si>
-    <t>6,24</t>
-  </si>
-  <si>
-    <t>3,29</t>
-  </si>
-  <si>
-    <t>1,56</t>
-  </si>
-  <si>
-    <t>1,9</t>
-  </si>
-  <si>
-    <t>58,2</t>
-  </si>
-  <si>
-    <t>1480</t>
-  </si>
-  <si>
-    <t>785</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>453</t>
+    <t>driverpulley_weight_Kg</t>
+  </si>
+  <si>
+    <t>drivenpulley_j_Kgm2</t>
+  </si>
+  <si>
+    <t>drivenbushing_j_Kgm2</t>
   </si>
 </sst>
 </file>
@@ -417,11 +361,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,6 +382,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -726,16 +675,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.33203125" customWidth="1"/>
+    <col min="36" max="36" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.5" customWidth="1"/>
+    <col min="39" max="39" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -839,63 +824,54 @@
         <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I2">
         <v>99</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K2">
         <v>100</v>
@@ -931,102 +907,95 @@
         <v>657</v>
       </c>
       <c r="V2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="X2">
+        <v>37</v>
       </c>
       <c r="Y2">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="Z2">
-        <v>4</v>
-      </c>
-      <c r="AA2">
         <v>240</v>
       </c>
-      <c r="AB2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC2">
+      <c r="AA2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB2">
         <v>600</v>
       </c>
+      <c r="AC2" t="s">
+        <v>74</v>
+      </c>
       <c r="AD2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="AE2">
+        <v>738</v>
       </c>
       <c r="AF2">
-        <v>738</v>
+        <v>1475</v>
       </c>
       <c r="AG2">
-        <v>1475</v>
+        <v>234</v>
       </c>
       <c r="AH2">
-        <v>234</v>
-      </c>
-      <c r="AI2">
         <v>468</v>
       </c>
+      <c r="AI2" s="2">
+        <v>7.9545454545454541</v>
+      </c>
       <c r="AJ2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM2">
-        <v>5</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP2">
-        <v>5</v>
-      </c>
-      <c r="AQ2">
+        <v>82</v>
+      </c>
+      <c r="AK2" s="2">
+        <f>+AJ2*0.1</f>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>2.4525916561314793</v>
+      </c>
+      <c r="AM2" s="2">
+        <f>+AL2*0.1</f>
+        <v>0.24525916561314795</v>
+      </c>
+      <c r="AN2">
         <v>959</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G3">
         <v>80</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I3">
         <v>760</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K3">
         <v>140</v>
@@ -1062,102 +1031,95 @@
         <v>1715</v>
       </c>
       <c r="V3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3">
+        <v>200</v>
+      </c>
+      <c r="Y3">
+        <v>6</v>
+      </c>
+      <c r="Z3">
+        <v>1929</v>
+      </c>
+      <c r="AA3" t="s">
         <v>70</v>
       </c>
-      <c r="W3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y3">
-        <v>200</v>
-      </c>
-      <c r="Z3">
-        <v>6</v>
-      </c>
-      <c r="AA3">
-        <v>1929</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC3">
+      <c r="AB3">
         <v>1000</v>
       </c>
+      <c r="AC3" t="s">
+        <v>75</v>
+      </c>
       <c r="AD3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>85</v>
+        <v>79</v>
+      </c>
+      <c r="AE3">
+        <v>495</v>
       </c>
       <c r="AF3">
-        <v>495</v>
+        <v>990</v>
       </c>
       <c r="AG3">
+        <v>177</v>
+      </c>
+      <c r="AH3">
+        <v>355</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>66.36363636363636</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK3" s="2">
+        <f t="shared" ref="AK3:AK7" si="0">+AJ3*0.1</f>
+        <v>0.17</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>62.368310155920774</v>
+      </c>
+      <c r="AM3" s="2">
+        <f t="shared" ref="AM3:AM7" si="1">+AL3*0.1</f>
+        <v>6.2368310155920774</v>
+      </c>
+      <c r="AN3">
         <v>990</v>
       </c>
-      <c r="AH3">
-        <v>177</v>
-      </c>
-      <c r="AI3">
-        <v>355</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM3">
-        <v>148</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP3">
-        <v>148</v>
-      </c>
-      <c r="AQ3">
-        <v>990</v>
-      </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I4">
         <v>625</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K4">
         <v>100</v>
@@ -1193,102 +1155,95 @@
         <v>1386.2</v>
       </c>
       <c r="V4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="X4">
+        <v>200</v>
       </c>
       <c r="Y4">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="Z4">
-        <v>4</v>
-      </c>
-      <c r="AA4">
         <v>1282</v>
       </c>
-      <c r="AB4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC4">
+      <c r="AA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB4">
         <v>750</v>
       </c>
+      <c r="AC4" t="s">
+        <v>76</v>
+      </c>
       <c r="AD4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="AE4">
+        <v>745</v>
       </c>
       <c r="AF4">
-        <v>745</v>
+        <v>1490</v>
       </c>
       <c r="AG4">
-        <v>1490</v>
+        <v>293</v>
       </c>
       <c r="AH4">
-        <v>293</v>
-      </c>
-      <c r="AI4">
         <v>587</v>
       </c>
+      <c r="AI4" s="2">
+        <v>75</v>
+      </c>
       <c r="AJ4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM4">
-        <v>78</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP4">
-        <v>78</v>
-      </c>
-      <c r="AQ4">
+        <v>84</v>
+      </c>
+      <c r="AK4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>33.080488832701221</v>
+      </c>
+      <c r="AM4" s="2">
+        <f t="shared" si="1"/>
+        <v>3.3080488832701223</v>
+      </c>
+      <c r="AN4">
         <v>1295</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G5">
         <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I5">
         <v>237</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K5">
         <v>100</v>
@@ -1324,102 +1279,95 @@
         <v>786</v>
       </c>
       <c r="V5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W5" t="s">
+        <v>67</v>
+      </c>
+      <c r="X5">
+        <v>75</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <v>482</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB5">
+        <v>750</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE5">
+        <v>743</v>
+      </c>
+      <c r="AF5">
+        <v>1485</v>
+      </c>
+      <c r="AG5">
+        <v>215</v>
+      </c>
+      <c r="AH5">
+        <v>431</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>17.27272727272727</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK5" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>15.592077538980194</v>
+      </c>
+      <c r="AM5" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5592077538980194</v>
+      </c>
+      <c r="AN5">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="X5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y5">
-        <v>75</v>
-      </c>
-      <c r="Z5">
-        <v>4</v>
-      </c>
-      <c r="AA5">
-        <v>482</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC5">
-        <v>750</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF5">
-        <v>743</v>
-      </c>
-      <c r="AG5">
-        <v>1485</v>
-      </c>
-      <c r="AH5">
-        <v>215</v>
-      </c>
-      <c r="AI5">
-        <v>431</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM5">
-        <v>37</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP5">
-        <v>37</v>
-      </c>
-      <c r="AQ5">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G6">
         <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I6">
         <v>237</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K6">
         <v>100</v>
@@ -1455,102 +1403,95 @@
         <v>1419</v>
       </c>
       <c r="V6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W6" t="s">
+        <v>68</v>
+      </c>
+      <c r="X6">
+        <v>90</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <v>577</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB6">
+        <v>750</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE6">
+        <v>745</v>
+      </c>
+      <c r="AF6">
+        <v>1489</v>
+      </c>
+      <c r="AG6">
+        <v>216</v>
+      </c>
+      <c r="AH6">
+        <v>432</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>17.27272727272727</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>15.592077538980194</v>
+      </c>
+      <c r="AM6" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5592077538980194</v>
+      </c>
+      <c r="AN6">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="X6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y6">
-        <v>90</v>
-      </c>
-      <c r="Z6">
-        <v>4</v>
-      </c>
-      <c r="AA6">
-        <v>577</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC6">
-        <v>750</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF6">
-        <v>745</v>
-      </c>
-      <c r="AG6">
-        <v>1489</v>
-      </c>
-      <c r="AH6">
-        <v>216</v>
-      </c>
-      <c r="AI6">
-        <v>432</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM6">
-        <v>37</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP6">
-        <v>37</v>
-      </c>
-      <c r="AQ6">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
         <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
       </c>
       <c r="G7">
         <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I7">
         <v>322</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K7">
         <v>100</v>
@@ -1586,69 +1527,62 @@
         <v>1139</v>
       </c>
       <c r="V7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W7" t="s">
-        <v>48</v>
-      </c>
-      <c r="X7" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="X7">
+        <v>110</v>
       </c>
       <c r="Y7">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="Z7">
-        <v>4</v>
-      </c>
-      <c r="AA7">
         <v>706</v>
       </c>
-      <c r="AB7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC7">
+      <c r="AA7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB7">
         <v>600</v>
       </c>
+      <c r="AC7" t="s">
+        <v>74</v>
+      </c>
       <c r="AD7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="AE7">
+        <v>745</v>
       </c>
       <c r="AF7">
-        <v>745</v>
+        <v>1489</v>
       </c>
       <c r="AG7">
-        <v>1489</v>
+        <v>317</v>
       </c>
       <c r="AH7">
-        <v>317</v>
-      </c>
-      <c r="AI7">
         <v>635</v>
       </c>
+      <c r="AI7" s="2">
+        <v>34.54545454545454</v>
+      </c>
       <c r="AJ7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM7">
-        <v>45</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP7">
-        <v>45</v>
-      </c>
-      <c r="AQ7">
+        <v>86</v>
+      </c>
+      <c r="AK7" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>19.089759797724398</v>
+      </c>
+      <c r="AM7" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9089759797724399</v>
+      </c>
+      <c r="AN7">
         <v>1188</v>
       </c>
     </row>

--- a/bombas_dataset_with_torque_params.xlsx
+++ b/bombas_dataset_with_torque_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c842a89353bbbeb3/Documentos/00 Fran/02. Trabajo/01. Metso/06. Dev/PumpsReactionTime/PumpsReactionTime/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_F356A5A7C5DFBCC59E170B7123B2646D48C6E683" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E369EFA-DAF3-144B-9201-1F6EB2060902}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_F356A5A7C5DFBCC59E170B7123B2646D48C6E683" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD6383A6-6FF4-6A4F-AA76-C1BAB1DABC8E}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -678,7 +678,7 @@
   <dimension ref="A1:AN7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/bombas_dataset_with_torque_params.xlsx
+++ b/bombas_dataset_with_torque_params.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="114" documentId="11_F356A5A7C5DFBCC59E170B7123B2646D48C6E683" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A450A53F-84DB-9140-BF40-E46B116D6BCA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -391,6 +391,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -739,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/bombas_dataset_with_torque_params.xlsx
+++ b/bombas_dataset_with_torque_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c842a89353bbbeb3/Documentos/00 Fran/02. Trabajo/01. Metso/06. Dev/PumpsReactionTime/PumpsReactionTime/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="11_F356A5A7C5DFBCC59E170B7123B2646D48C6E683" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A450A53F-84DB-9140-BF40-E46B116D6BCA}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="11_F356A5A7C5DFBCC59E170B7123B2646D48C6E683" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFF1A0E2-293A-6F48-8159-FE1AF2CFB8DA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,10 +225,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -741,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR7"/>
+  <dimension ref="A1:AX7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AR1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1746,6 +1752,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
